--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\Retinal-Image-Registration-SOP\Tutorials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F257318B-F482-4AA6-A4B2-56F903ABF3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93126E98-BEA5-48E6-9982-74C29955DCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>Formula</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Stage of Measurement</t>
   </si>
@@ -87,23 +84,20 @@
     <t>Measure Parameters</t>
   </si>
   <si>
-    <t>1 pixel</t>
-  </si>
-  <si>
-    <t>µm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172 Pixels  </t>
-  </si>
-  <si>
     <t>Scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 Pixels  </t>
+  </si>
+  <si>
+    <t>1000 µm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +140,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,27 +154,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,123 +579,108 @@
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
-        <f xml:space="preserve"> 1000</f>
-        <v>1000</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1">
-        <f>1000/172</f>
-        <v>5.8139534883720927</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93126E98-BEA5-48E6-9982-74C29955DCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CD5F0-C91D-48AF-9AE3-FB5C7E4C573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,8 +261,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,6 +282,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -569,7 +569,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -620,24 +620,24 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -645,7 +645,7 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -653,15 +653,15 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -669,13 +669,13 @@
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CD5F0-C91D-48AF-9AE3-FB5C7E4C573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8B0DD-98F5-40BC-85C0-70AA8D092E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,7 +260,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -569,7 +568,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -612,32 +611,32 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -645,7 +644,7 @@
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -653,15 +652,15 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -669,13 +668,13 @@
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8B0DD-98F5-40BC-85C0-70AA8D092E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768EC77-D3D2-4221-99A7-A288737393AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768EC77-D3D2-4221-99A7-A288737393AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFF900-BBFD-4D08-BF71-3FF8BE12B94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>Skeleton</t>
   </si>
   <si>
-    <t>Vessel Length / Vessel Caliber</t>
-  </si>
-  <si>
     <t>Vessel Junction / Vessel Length</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>1000 µm</t>
+  </si>
+  <si>
+    <t>Vessel Area / Vessel Length</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -568,7 +571,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +583,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -628,7 +631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15"/>
     </row>
@@ -645,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,29 +656,29 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEFF900-BBFD-4D08-BF71-3FF8BE12B94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6D62D-CE6C-4D8B-86AA-495CA307207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Stage of Measurement</t>
   </si>
@@ -91,13 +91,50 @@
   </si>
   <si>
     <t>Vessel Area / Vessel Length</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Dimensionless</t>
+  </si>
+  <si>
+    <t>µm</t>
+  </si>
+  <si>
+    <t>No. of Junctions/mm</t>
+  </si>
+  <si>
+    <t>No. of Junctions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +164,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -248,7 +299,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +337,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -568,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,99 +634,129 @@
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
@@ -681,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
   </sheetData>

--- a/Tutorials/Formulas.xlsx
+++ b/Tutorials/Formulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aadit\Documents\GitHub\mCNV-image-analysis\Tutorials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D6D62D-CE6C-4D8B-86AA-495CA307207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF4D1A-3D44-4216-ACD0-CEBBE583B5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -624,7 +631,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
